--- a/citizen_science_flora_bom_v2.xlsx
+++ b/citizen_science_flora_bom_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51c118854276e9fd/Documents/GitHub/citizen_science_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="8_{13C0C733-EE02-42C2-950E-3CC48271C0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8E69019-6881-48CB-A69C-46652B26D8A4}"/>
+  <xr:revisionPtr revIDLastSave="232" documentId="8_{13C0C733-EE02-42C2-950E-3CC48271C0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D59BE7D7-F1AA-41ED-A0EB-1F33660ADA5A}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" tabRatio="209" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="164">
   <si>
     <t>*Manufacturer Part Number</t>
   </si>
@@ -46,9 +46,6 @@
     <t>0.1uF</t>
   </si>
   <si>
-    <t>C1 C2 C3 C4 C5 C6 C7 C8 C9 C13 C15 C16 C17 C21 C22 C25 C26 C27 C28 C29 C30 C34 C36 C38 C39 C40 C41 C42 C44 C45 C46 C49 C50 C51 C52</t>
-  </si>
-  <si>
     <t>1.0uF</t>
   </si>
   <si>
@@ -58,21 +55,12 @@
     <t>1K</t>
   </si>
   <si>
-    <t>R2 R6 R8 R14 R15</t>
-  </si>
-  <si>
     <t>1M</t>
   </si>
   <si>
-    <t>R23 R24</t>
-  </si>
-  <si>
     <t>1N5819</t>
   </si>
   <si>
-    <t>D1 D2</t>
-  </si>
-  <si>
     <t>1nF</t>
   </si>
   <si>
@@ -82,9 +70,6 @@
     <t>2.2K</t>
   </si>
   <si>
-    <t>R12 R21 R22</t>
-  </si>
-  <si>
     <t>3.3µH</t>
   </si>
   <si>
@@ -94,27 +79,15 @@
     <t>4.7uF</t>
   </si>
   <si>
-    <t>C10 C11 C12 C14</t>
-  </si>
-  <si>
     <t>5.1k</t>
   </si>
   <si>
-    <t>R9 R10</t>
-  </si>
-  <si>
     <t>10K</t>
   </si>
   <si>
-    <t>R18 R20 R7 R13</t>
-  </si>
-  <si>
     <t>10uF</t>
   </si>
   <si>
-    <t>C20 C23 C24 C31 C35 C37</t>
-  </si>
-  <si>
     <t>12MHz</t>
   </si>
   <si>
@@ -124,48 +97,24 @@
     <t>12pF</t>
   </si>
   <si>
-    <t>C47 C48</t>
-  </si>
-  <si>
     <t>15pF</t>
   </si>
   <si>
-    <t>C18 C19</t>
-  </si>
-  <si>
     <t>16.9K</t>
   </si>
   <si>
     <t>R19</t>
   </si>
   <si>
-    <t>DNP</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R3 R4</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
-    <t>R16 R17</t>
-  </si>
-  <si>
     <t>BSS138</t>
   </si>
   <si>
-    <t>Q1 Q2</t>
-  </si>
-  <si>
     <t>R25</t>
   </si>
   <si>
-    <t>J4 J5</t>
-  </si>
-  <si>
     <t>ADM3260ARSZ</t>
   </si>
   <si>
@@ -190,12 +139,6 @@
     <t>U5</t>
   </si>
   <si>
-    <t>DNF</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
     <t>ENS210-LQFM</t>
   </si>
   <si>
@@ -235,27 +178,12 @@
     <t>MOMENTARY-SWITCH-SPST-SMD-4.6X2.8MM</t>
   </si>
   <si>
-    <t>!BOOT RESET USR_BUTTON</t>
-  </si>
-  <si>
-    <t>OPS-S56AAF5</t>
-  </si>
-  <si>
-    <t>U11 U12 U13 U14</t>
-  </si>
-  <si>
     <t>PCF8563T/F4 118</t>
   </si>
   <si>
     <t>U10</t>
   </si>
   <si>
-    <t>PH-OEM</t>
-  </si>
-  <si>
-    <t>U$2 U$3</t>
-  </si>
-  <si>
     <t>Q13FC1350000400</t>
   </si>
   <si>
@@ -298,33 +226,12 @@
     <t>U$1</t>
   </si>
   <si>
-    <t>TPB1 27</t>
-  </si>
-  <si>
-    <t>3.3V</t>
-  </si>
-  <si>
-    <t>GND</t>
-  </si>
-  <si>
-    <t>TSM-102-02-S-SH</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
     <t>TYPE-C-31-M-12</t>
   </si>
   <si>
     <t>J2</t>
   </si>
   <si>
-    <t>V_USB</t>
-  </si>
-  <si>
-    <t>USB</t>
-  </si>
-  <si>
     <t>W25Q64JVXGIQ</t>
   </si>
   <si>
@@ -406,12 +313,6 @@
     <t>XSON-8-EP(4x4)</t>
   </si>
   <si>
-    <t>Do Not Fit</t>
-  </si>
-  <si>
-    <t>60312202114511</t>
-  </si>
-  <si>
     <t>Raspberry Pi</t>
   </si>
   <si>
@@ -566,6 +467,51 @@
   </si>
   <si>
     <t>SMD3225-4P</t>
+  </si>
+  <si>
+    <t>C1,C2,C3,C4,C5,C6,C7,C8,C9,C13,C15,C16,C17,C21,C22,C25,C26,C27,C28,C29,C30,C34,C36,C38,C39,C40,C41,C42,C44,C45,C46,C49,C50,C51,C52</t>
+  </si>
+  <si>
+    <t>R2,R6,R8,R14,R15</t>
+  </si>
+  <si>
+    <t>R23,R24</t>
+  </si>
+  <si>
+    <t>D1,D2</t>
+  </si>
+  <si>
+    <t>R12,R21,R22</t>
+  </si>
+  <si>
+    <t>C10,C11,C12,C14</t>
+  </si>
+  <si>
+    <t>R9,R10</t>
+  </si>
+  <si>
+    <t>R18,R20,R7,R13</t>
+  </si>
+  <si>
+    <t>C20,C23,C24,C31,C35,C37</t>
+  </si>
+  <si>
+    <t>C47,C48</t>
+  </si>
+  <si>
+    <t>C18,C19</t>
+  </si>
+  <si>
+    <t>R3,R4</t>
+  </si>
+  <si>
+    <t>R16,R17</t>
+  </si>
+  <si>
+    <t>Q1,Q2</t>
+  </si>
+  <si>
+    <t>!BOOT,RESET,USR_BUTTON</t>
   </si>
 </sst>
 </file>
@@ -670,6 +616,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -989,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,22 +977,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1050,1019 +1000,839 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="D3">
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="D13">
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="D14">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>159</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>39</v>
+      <c r="A19" s="2">
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" t="s">
-        <v>128</v>
+        <v>141</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>100</v>
+      <c r="A22" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>44</v>
+      <c r="A23" s="2">
+        <v>470</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>171</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>470</v>
+      <c r="A24" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" t="s">
-        <v>167</v>
+        <v>32</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" t="s">
-        <v>128</v>
+        <v>34</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" t="s">
-        <v>54</v>
+        <v>42</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>161</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" t="s">
-        <v>128</v>
+        <v>124</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>117</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" t="s">
-        <v>157</v>
+        <v>50</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>159</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" t="s">
-        <v>150</v>
+        <v>53</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>109</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38" t="s">
-        <v>128</v>
+        <v>59</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
+      </c>
+      <c r="C39" t="s">
+        <v>105</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" t="s">
-        <v>128</v>
+        <v>63</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" t="s">
-        <v>142</v>
+        <v>65</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>104</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" t="s">
-        <v>136</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" t="s">
-        <v>134</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>135</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48" t="s">
-        <v>128</v>
-      </c>
-      <c r="E48" t="s">
-        <v>128</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" t="s">
-        <v>128</v>
-      </c>
-      <c r="D49" t="s">
-        <v>128</v>
-      </c>
-      <c r="E49" t="s">
-        <v>128</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" t="s">
         <v>96</v>
-      </c>
-      <c r="C50" t="s">
-        <v>128</v>
-      </c>
-      <c r="D50" t="s">
-        <v>128</v>
-      </c>
-      <c r="E50" t="s">
-        <v>128</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
-        <v>132</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" t="s">
-        <v>128</v>
-      </c>
-      <c r="D52" t="s">
-        <v>128</v>
-      </c>
-      <c r="E52" t="s">
-        <v>128</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B53" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" t="s">
-        <v>126</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/citizen_science_flora_bom_v2.xlsx
+++ b/citizen_science_flora_bom_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51c118854276e9fd/Documents/GitHub/citizen_science_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="232" documentId="8_{13C0C733-EE02-42C2-950E-3CC48271C0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D59BE7D7-F1AA-41ED-A0EB-1F33660ADA5A}"/>
+  <xr:revisionPtr revIDLastSave="237" documentId="8_{13C0C733-EE02-42C2-950E-3CC48271C0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EFB4BA1-D80A-4952-B9E9-665A4CECB67E}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" tabRatio="209" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="209" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="163">
   <si>
     <t>*Manufacturer Part Number</t>
   </si>
@@ -286,15 +286,6 @@
     <t>0402WGF2201TCE</t>
   </si>
   <si>
-    <t>SDFL2012Q3R3KTF</t>
-  </si>
-  <si>
-    <t>Sunlord</t>
-  </si>
-  <si>
-    <t>0805</t>
-  </si>
-  <si>
     <t>CL05A475MP5NRNC</t>
   </si>
   <si>
@@ -460,12 +451,6 @@
     <t>0402CG120J500NT</t>
   </si>
   <si>
-    <t>7B012000R01</t>
-  </si>
-  <si>
-    <t>HD</t>
-  </si>
-  <si>
     <t>SMD3225-4P</t>
   </si>
   <si>
@@ -512,6 +497,18 @@
   </si>
   <si>
     <t>!BOOT,RESET,USR_BUTTON</t>
+  </si>
+  <si>
+    <t>Abracon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ABM8-272-T3</t>
+  </si>
+  <si>
+    <t>0806</t>
+  </si>
+  <si>
+    <t>AOTA-B201610S3R3-101-T</t>
   </si>
 </sst>
 </file>
@@ -942,7 +939,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,7 +997,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
         <v>76</v>
@@ -1040,7 +1037,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>79</v>
@@ -1060,7 +1057,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
         <v>82</v>
@@ -1080,7 +1077,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
         <v>84</v>
@@ -1120,7 +1117,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
         <v>87</v>
@@ -1143,16 +1140,16 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1160,10 +1157,10 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -1180,10 +1177,10 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1200,10 +1197,10 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -1220,10 +1217,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -1243,16 +1240,16 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1260,10 +1257,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1280,10 +1277,10 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1303,7 +1300,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1320,16 +1317,16 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>81</v>
@@ -1343,7 +1340,7 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1360,10 +1357,10 @@
         <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1380,19 +1377,19 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C22" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1403,13 +1400,13 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>81</v>
@@ -1429,10 +1426,10 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1449,10 +1446,10 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1469,10 +1466,10 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1489,10 +1486,10 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1509,10 +1506,10 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1529,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>41</v>
@@ -1543,16 +1540,16 @@
         <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1569,10 +1566,10 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1583,16 +1580,16 @@
         <v>48</v>
       </c>
       <c r="C32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>118</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1609,10 +1606,10 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1620,19 +1617,19 @@
         <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1649,10 +1646,10 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1663,16 +1660,16 @@
         <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1689,10 +1686,10 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1709,10 +1706,10 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1723,16 +1720,16 @@
         <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1769,10 +1766,10 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1783,16 +1780,16 @@
         <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1809,10 +1806,10 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1829,10 +1826,10 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
